--- a/[3] Test Input/RESULTS_MTT_MERGED_ASR_control.xlsx
+++ b/[3] Test Input/RESULTS_MTT_MERGED_ASR_control.xlsx
@@ -522,31 +522,31 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>30</v>
+        <v>28.8</v>
       </c>
       <c r="G2" t="n">
-        <v>18</v>
+        <v>26.8</v>
       </c>
       <c r="H2" t="n">
-        <v>61.8</v>
+        <v>25.6</v>
       </c>
       <c r="I2" t="n">
-        <v>62.17399999999999</v>
+        <v>24.98794941983246</v>
       </c>
       <c r="J2" t="n">
-        <v>54.06</v>
+        <v>22.90209432017161</v>
       </c>
       <c r="K2" t="n">
-        <v>24.9</v>
+        <v>8.315999999999999</v>
       </c>
       <c r="L2" t="n">
-        <v>163.184</v>
+        <v>25.904</v>
       </c>
       <c r="M2" t="n">
-        <v>6528.83</v>
+        <v>894.338</v>
       </c>
     </row>
     <row r="3">
@@ -571,31 +571,31 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>32.4</v>
+        <v>18</v>
       </c>
       <c r="G3" t="n">
-        <v>22.4</v>
+        <v>16</v>
       </c>
       <c r="H3" t="n">
-        <v>162.6</v>
+        <v>76.8</v>
       </c>
       <c r="I3" t="n">
-        <v>153.862</v>
+        <v>75.22067802699601</v>
       </c>
       <c r="J3" t="n">
-        <v>144.34</v>
+        <v>66.38327742909067</v>
       </c>
       <c r="K3" t="n">
-        <v>66.78799999999998</v>
+        <v>25.156</v>
       </c>
       <c r="L3" t="n">
-        <v>127.974</v>
+        <v>50.412</v>
       </c>
       <c r="M3" t="n">
-        <v>15918.314</v>
+        <v>3835.214</v>
       </c>
     </row>
     <row r="4">
@@ -620,31 +620,31 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>30</v>
+        <v>23.2</v>
       </c>
       <c r="G4" t="n">
-        <v>20</v>
+        <v>21.2</v>
       </c>
       <c r="H4" t="n">
-        <v>128</v>
+        <v>54</v>
       </c>
       <c r="I4" t="n">
-        <v>128.24</v>
+        <v>52.88655163521115</v>
       </c>
       <c r="J4" t="n">
-        <v>119.32</v>
+        <v>47.93341677167448</v>
       </c>
       <c r="K4" t="n">
-        <v>48.756</v>
+        <v>18.028</v>
       </c>
       <c r="L4" t="n">
-        <v>106.794</v>
+        <v>34.21999999999999</v>
       </c>
       <c r="M4" t="n">
-        <v>10787.114</v>
+        <v>2234.216</v>
       </c>
     </row>
     <row r="5">
@@ -669,31 +669,31 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>11.2</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>30</v>
+        <v>31.2</v>
       </c>
       <c r="G5" t="n">
-        <v>18.8</v>
+        <v>29.2</v>
       </c>
       <c r="H5" t="n">
-        <v>88.2</v>
+        <v>37</v>
       </c>
       <c r="I5" t="n">
-        <v>88.66799999999999</v>
+        <v>36.42050583290975</v>
       </c>
       <c r="J5" t="n">
-        <v>77.536</v>
+        <v>35.85153922003742</v>
       </c>
       <c r="K5" t="n">
-        <v>34.358</v>
+        <v>11.452</v>
       </c>
       <c r="L5" t="n">
-        <v>144.168</v>
+        <v>23.988</v>
       </c>
       <c r="M5" t="n">
-        <v>8858.762000000001</v>
+        <v>1217.942</v>
       </c>
     </row>
     <row r="6">
@@ -718,31 +718,31 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>11.6</v>
+        <v>2</v>
       </c>
       <c r="F6" t="n">
-        <v>30.4</v>
+        <v>32</v>
       </c>
       <c r="G6" t="n">
-        <v>18.8</v>
+        <v>30</v>
       </c>
       <c r="H6" t="n">
-        <v>76</v>
+        <v>30.6</v>
       </c>
       <c r="I6" t="n">
-        <v>76.32599999999999</v>
+        <v>30.37514720649451</v>
       </c>
       <c r="J6" t="n">
-        <v>64.994</v>
+        <v>27.95176923649416</v>
       </c>
       <c r="K6" t="n">
-        <v>32.276</v>
+        <v>10.368</v>
       </c>
       <c r="L6" t="n">
-        <v>167.566</v>
+        <v>26.156</v>
       </c>
       <c r="M6" t="n">
-        <v>9199.476000000001</v>
+        <v>1100.338</v>
       </c>
     </row>
     <row r="7">
@@ -767,31 +767,31 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>10.66666666666667</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="F7" t="n">
-        <v>26</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="G7" t="n">
-        <v>15.33333333333333</v>
+        <v>24</v>
       </c>
       <c r="H7" t="n">
-        <v>133.6666666666667</v>
+        <v>60.66666666666666</v>
       </c>
       <c r="I7" t="n">
-        <v>133.9133333333333</v>
+        <v>58.74642869579551</v>
       </c>
       <c r="J7" t="n">
-        <v>121.9566666666667</v>
+        <v>56.51614891652401</v>
       </c>
       <c r="K7" t="n">
-        <v>56.02333333333333</v>
+        <v>19.21666666666667</v>
       </c>
       <c r="L7" t="n">
-        <v>146.68</v>
+        <v>31.96</v>
       </c>
       <c r="M7" t="n">
-        <v>15526.60666666667</v>
+        <v>2491.01</v>
       </c>
     </row>
     <row r="8">
@@ -816,31 +816,31 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>10.5</v>
+        <v>2</v>
       </c>
       <c r="F8" t="n">
-        <v>36.5</v>
+        <v>29</v>
       </c>
       <c r="G8" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H8" t="n">
-        <v>98.75</v>
+        <v>46.5</v>
       </c>
       <c r="I8" t="n">
-        <v>94.81999999999999</v>
+        <v>44.27823641338116</v>
       </c>
       <c r="J8" t="n">
-        <v>86.60499999999999</v>
+        <v>41.46207861308176</v>
       </c>
       <c r="K8" t="n">
-        <v>40.285</v>
+        <v>14.6925</v>
       </c>
       <c r="L8" t="n">
-        <v>153.515</v>
+        <v>30.8475</v>
       </c>
       <c r="M8" t="n">
-        <v>10756.425</v>
+        <v>1878.5425</v>
       </c>
     </row>
     <row r="9">
@@ -865,31 +865,31 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F9" t="n">
-        <v>34.4</v>
+        <v>21.2</v>
       </c>
       <c r="G9" t="n">
-        <v>24.4</v>
+        <v>19.2</v>
       </c>
       <c r="H9" t="n">
-        <v>256</v>
+        <v>107.4</v>
       </c>
       <c r="I9" t="n">
-        <v>254.466</v>
+        <v>104.9801413632098</v>
       </c>
       <c r="J9" t="n">
-        <v>230.258</v>
+        <v>90.07498004305752</v>
       </c>
       <c r="K9" t="n">
-        <v>100.026</v>
+        <v>38.514</v>
       </c>
       <c r="L9" t="n">
-        <v>83.208</v>
+        <v>42.78</v>
       </c>
       <c r="M9" t="n">
-        <v>20564.348</v>
+        <v>5434.648</v>
       </c>
     </row>
     <row r="10">
@@ -914,31 +914,31 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F10" t="n">
-        <v>29.6</v>
+        <v>18.4</v>
       </c>
       <c r="G10" t="n">
-        <v>17.6</v>
+        <v>16.4</v>
       </c>
       <c r="H10" t="n">
-        <v>110</v>
+        <v>57.8</v>
       </c>
       <c r="I10" t="n">
-        <v>110.666</v>
+        <v>55.14414009134642</v>
       </c>
       <c r="J10" t="n">
-        <v>99.73600000000002</v>
+        <v>54.47244840068205</v>
       </c>
       <c r="K10" t="n">
-        <v>39.78400000000001</v>
+        <v>17.858</v>
       </c>
       <c r="L10" t="n">
-        <v>118.92</v>
+        <v>33.932</v>
       </c>
       <c r="M10" t="n">
-        <v>8948.822</v>
+        <v>2550.434</v>
       </c>
     </row>
     <row r="11">
@@ -963,31 +963,31 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>8.800000000000001</v>
+        <v>2</v>
       </c>
       <c r="F11" t="n">
-        <v>38.8</v>
+        <v>17.6</v>
       </c>
       <c r="G11" t="n">
-        <v>30</v>
+        <v>15.6</v>
       </c>
       <c r="H11" t="n">
-        <v>141</v>
+        <v>58.6</v>
       </c>
       <c r="I11" t="n">
-        <v>139.376</v>
+        <v>57.86217118007698</v>
       </c>
       <c r="J11" t="n">
-        <v>129.048</v>
+        <v>54.14756710256977</v>
       </c>
       <c r="K11" t="n">
-        <v>64.05199999999999</v>
+        <v>20.334</v>
       </c>
       <c r="L11" t="n">
-        <v>152.08</v>
+        <v>44.97</v>
       </c>
       <c r="M11" t="n">
-        <v>17092.026</v>
+        <v>3060.35</v>
       </c>
     </row>
     <row r="12">
@@ -1012,31 +1012,31 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>8.5</v>
+        <v>2.5</v>
       </c>
       <c r="F12" t="n">
-        <v>29.5</v>
+        <v>27.5</v>
       </c>
       <c r="G12" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H12" t="n">
-        <v>101.5</v>
+        <v>43.5</v>
       </c>
       <c r="I12" t="n">
-        <v>101.7775</v>
+        <v>42.98150586131185</v>
       </c>
       <c r="J12" t="n">
-        <v>88.19749999999999</v>
+        <v>38.94922196106675</v>
       </c>
       <c r="K12" t="n">
-        <v>43.3</v>
+        <v>14.1625</v>
       </c>
       <c r="L12" t="n">
-        <v>167.29</v>
+        <v>38.4875</v>
       </c>
       <c r="M12" t="n">
-        <v>12886.09</v>
+        <v>1914.5725</v>
       </c>
     </row>
     <row r="13">
@@ -1061,31 +1061,31 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F13" t="n">
-        <v>28</v>
+        <v>23.6</v>
       </c>
       <c r="G13" t="n">
-        <v>18</v>
+        <v>21.6</v>
       </c>
       <c r="H13" t="n">
-        <v>256.8</v>
+        <v>138</v>
       </c>
       <c r="I13" t="n">
-        <v>256.88</v>
+        <v>130.2596040168874</v>
       </c>
       <c r="J13" t="n">
-        <v>239.916</v>
+        <v>114.7552084721811</v>
       </c>
       <c r="K13" t="n">
-        <v>87.61199999999999</v>
+        <v>44.336</v>
       </c>
       <c r="L13" t="n">
-        <v>129.958</v>
+        <v>32.156</v>
       </c>
       <c r="M13" t="n">
-        <v>20544.272</v>
+        <v>5089.902</v>
       </c>
     </row>
     <row r="14">
@@ -1110,31 +1110,31 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>16</v>
+        <v>3.5</v>
       </c>
       <c r="F14" t="n">
-        <v>37.5</v>
+        <v>34.5</v>
       </c>
       <c r="G14" t="n">
-        <v>21.5</v>
+        <v>31</v>
       </c>
       <c r="H14" t="n">
-        <v>55.75</v>
+        <v>24.5</v>
       </c>
       <c r="I14" t="n">
-        <v>55.4175</v>
+        <v>24.32447669266905</v>
       </c>
       <c r="J14" t="n">
-        <v>53.2375</v>
+        <v>22.83298711846588</v>
       </c>
       <c r="K14" t="n">
-        <v>21.885</v>
+        <v>7.515</v>
       </c>
       <c r="L14" t="n">
-        <v>202.635</v>
+        <v>20.745</v>
       </c>
       <c r="M14" t="n">
-        <v>6602.725</v>
+        <v>900.2049999999999</v>
       </c>
     </row>
     <row r="15">
@@ -1159,31 +1159,31 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>10.4</v>
+        <v>2</v>
       </c>
       <c r="F15" t="n">
-        <v>34.4</v>
+        <v>20.4</v>
       </c>
       <c r="G15" t="n">
-        <v>24</v>
+        <v>18.4</v>
       </c>
       <c r="H15" t="n">
-        <v>196</v>
+        <v>86.8</v>
       </c>
       <c r="I15" t="n">
-        <v>194.37</v>
+        <v>82.28035043401928</v>
       </c>
       <c r="J15" t="n">
-        <v>173.584</v>
+        <v>77.01873920394939</v>
       </c>
       <c r="K15" t="n">
-        <v>83.57599999999999</v>
+        <v>29.178</v>
       </c>
       <c r="L15" t="n">
-        <v>173.406</v>
+        <v>34.912</v>
       </c>
       <c r="M15" t="n">
-        <v>22309.752</v>
+        <v>3635.312</v>
       </c>
     </row>
     <row r="16">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F16" t="n">
-        <v>30.66666666666667</v>
+        <v>23.33333333333333</v>
       </c>
       <c r="G16" t="n">
-        <v>20.66666666666667</v>
+        <v>21.33333333333333</v>
       </c>
       <c r="H16" t="n">
-        <v>170</v>
+        <v>90.33333333333333</v>
       </c>
       <c r="I16" t="n">
-        <v>170.47</v>
+        <v>89.00667130447671</v>
       </c>
       <c r="J16" t="n">
-        <v>146.4366666666666</v>
+        <v>80.65944687199391</v>
       </c>
       <c r="K16" t="n">
-        <v>50.24</v>
+        <v>28.15</v>
       </c>
       <c r="L16" t="n">
-        <v>40.90666666666667</v>
+        <v>30.56</v>
       </c>
       <c r="M16" t="n">
-        <v>8358.303333333331</v>
+        <v>3332.326666666666</v>
       </c>
     </row>
     <row r="17">
@@ -1257,31 +1257,31 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F17" t="n">
-        <v>30</v>
+        <v>28.4</v>
       </c>
       <c r="G17" t="n">
-        <v>20</v>
+        <v>26.4</v>
       </c>
       <c r="H17" t="n">
-        <v>131</v>
+        <v>49.6</v>
       </c>
       <c r="I17" t="n">
-        <v>131.258</v>
+        <v>49.83204173987492</v>
       </c>
       <c r="J17" t="n">
-        <v>120.862</v>
+        <v>49.60874167525618</v>
       </c>
       <c r="K17" t="n">
-        <v>53.74799999999999</v>
+        <v>16.922</v>
       </c>
       <c r="L17" t="n">
-        <v>137.518</v>
+        <v>30.388</v>
       </c>
       <c r="M17" t="n">
-        <v>12783.242</v>
+        <v>1779.412</v>
       </c>
     </row>
     <row r="18">
@@ -1306,31 +1306,31 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>11.6</v>
+        <v>2</v>
       </c>
       <c r="F18" t="n">
-        <v>31.2</v>
+        <v>26</v>
       </c>
       <c r="G18" t="n">
-        <v>19.6</v>
+        <v>24</v>
       </c>
       <c r="H18" t="n">
-        <v>116</v>
+        <v>49</v>
       </c>
       <c r="I18" t="n">
-        <v>116.57</v>
+        <v>48.1851893659697</v>
       </c>
       <c r="J18" t="n">
-        <v>107.716</v>
+        <v>44.85646124245318</v>
       </c>
       <c r="K18" t="n">
-        <v>48.098</v>
+        <v>16.006</v>
       </c>
       <c r="L18" t="n">
-        <v>144.616</v>
+        <v>26.666</v>
       </c>
       <c r="M18" t="n">
-        <v>13187.788</v>
+        <v>1740.548</v>
       </c>
     </row>
     <row r="19">
@@ -1355,31 +1355,31 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>11.6</v>
+        <v>2.4</v>
       </c>
       <c r="F19" t="n">
-        <v>34</v>
+        <v>27.6</v>
       </c>
       <c r="G19" t="n">
-        <v>22.4</v>
+        <v>25.2</v>
       </c>
       <c r="H19" t="n">
-        <v>171.4</v>
+        <v>74</v>
       </c>
       <c r="I19" t="n">
-        <v>168.08</v>
+        <v>72.38321943365779</v>
       </c>
       <c r="J19" t="n">
-        <v>156.61</v>
+        <v>67.98268048844305</v>
       </c>
       <c r="K19" t="n">
-        <v>60.99400000000001</v>
+        <v>22.724</v>
       </c>
       <c r="L19" t="n">
-        <v>70.536</v>
+        <v>26.012</v>
       </c>
       <c r="M19" t="n">
-        <v>11853.926</v>
+        <v>2978.108</v>
       </c>
     </row>
   </sheetData>

--- a/[3] Test Input/RESULTS_MTT_MERGED_ASR_control.xlsx
+++ b/[3] Test Input/RESULTS_MTT_MERGED_ASR_control.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,40 +461,30 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>RMS</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>tau</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>AUC</t>
         </is>
@@ -522,30 +512,24 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>28.8</v>
       </c>
       <c r="F2" t="n">
-        <v>28.8</v>
+        <v>25.6</v>
       </c>
       <c r="G2" t="n">
-        <v>26.8</v>
+        <v>24.98794941983246</v>
       </c>
       <c r="H2" t="n">
-        <v>25.6</v>
+        <v>22.90209432017161</v>
       </c>
       <c r="I2" t="n">
-        <v>24.98794941983246</v>
+        <v>8.315999999999999</v>
       </c>
       <c r="J2" t="n">
-        <v>22.90209432017161</v>
+        <v>25.904</v>
       </c>
       <c r="K2" t="n">
-        <v>8.315999999999999</v>
-      </c>
-      <c r="L2" t="n">
-        <v>25.904</v>
-      </c>
-      <c r="M2" t="n">
         <v>894.338</v>
       </c>
     </row>
@@ -571,30 +555,24 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F3" t="n">
-        <v>18</v>
+        <v>76.8</v>
       </c>
       <c r="G3" t="n">
-        <v>16</v>
+        <v>75.22067802699601</v>
       </c>
       <c r="H3" t="n">
-        <v>76.8</v>
+        <v>66.38327742909067</v>
       </c>
       <c r="I3" t="n">
-        <v>75.22067802699601</v>
+        <v>25.156</v>
       </c>
       <c r="J3" t="n">
-        <v>66.38327742909067</v>
+        <v>50.412</v>
       </c>
       <c r="K3" t="n">
-        <v>25.156</v>
-      </c>
-      <c r="L3" t="n">
-        <v>50.412</v>
-      </c>
-      <c r="M3" t="n">
         <v>3835.214</v>
       </c>
     </row>
@@ -620,30 +598,24 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>23.2</v>
       </c>
       <c r="F4" t="n">
-        <v>23.2</v>
+        <v>54</v>
       </c>
       <c r="G4" t="n">
-        <v>21.2</v>
+        <v>52.88655163521115</v>
       </c>
       <c r="H4" t="n">
-        <v>54</v>
+        <v>47.93341677167448</v>
       </c>
       <c r="I4" t="n">
-        <v>52.88655163521115</v>
+        <v>18.028</v>
       </c>
       <c r="J4" t="n">
-        <v>47.93341677167448</v>
+        <v>34.21999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>18.028</v>
-      </c>
-      <c r="L4" t="n">
-        <v>34.21999999999999</v>
-      </c>
-      <c r="M4" t="n">
         <v>2234.216</v>
       </c>
     </row>
@@ -669,30 +641,24 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>31.2</v>
       </c>
       <c r="F5" t="n">
-        <v>31.2</v>
+        <v>37</v>
       </c>
       <c r="G5" t="n">
-        <v>29.2</v>
+        <v>36.42050583290975</v>
       </c>
       <c r="H5" t="n">
-        <v>37</v>
+        <v>35.85153922003742</v>
       </c>
       <c r="I5" t="n">
-        <v>36.42050583290975</v>
+        <v>11.452</v>
       </c>
       <c r="J5" t="n">
-        <v>35.85153922003742</v>
+        <v>23.988</v>
       </c>
       <c r="K5" t="n">
-        <v>11.452</v>
-      </c>
-      <c r="L5" t="n">
-        <v>23.988</v>
-      </c>
-      <c r="M5" t="n">
         <v>1217.942</v>
       </c>
     </row>
@@ -718,30 +684,24 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="F6" t="n">
-        <v>32</v>
+        <v>30.6</v>
       </c>
       <c r="G6" t="n">
-        <v>30</v>
+        <v>30.37514720649451</v>
       </c>
       <c r="H6" t="n">
-        <v>30.6</v>
+        <v>27.95176923649416</v>
       </c>
       <c r="I6" t="n">
-        <v>30.37514720649451</v>
+        <v>10.368</v>
       </c>
       <c r="J6" t="n">
-        <v>27.95176923649416</v>
+        <v>26.156</v>
       </c>
       <c r="K6" t="n">
-        <v>10.368</v>
-      </c>
-      <c r="L6" t="n">
-        <v>26.156</v>
-      </c>
-      <c r="M6" t="n">
         <v>1100.338</v>
       </c>
     </row>
@@ -767,30 +727,24 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2.666666666666667</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="F7" t="n">
-        <v>26.66666666666667</v>
+        <v>60.66666666666666</v>
       </c>
       <c r="G7" t="n">
-        <v>24</v>
+        <v>58.74642869579551</v>
       </c>
       <c r="H7" t="n">
-        <v>60.66666666666666</v>
+        <v>56.51614891652401</v>
       </c>
       <c r="I7" t="n">
-        <v>58.74642869579551</v>
+        <v>19.21666666666667</v>
       </c>
       <c r="J7" t="n">
-        <v>56.51614891652401</v>
+        <v>31.96</v>
       </c>
       <c r="K7" t="n">
-        <v>19.21666666666667</v>
-      </c>
-      <c r="L7" t="n">
-        <v>31.96</v>
-      </c>
-      <c r="M7" t="n">
         <v>2491.01</v>
       </c>
     </row>
@@ -816,30 +770,24 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="F8" t="n">
-        <v>29</v>
+        <v>46.5</v>
       </c>
       <c r="G8" t="n">
-        <v>27</v>
+        <v>44.27823641338116</v>
       </c>
       <c r="H8" t="n">
-        <v>46.5</v>
+        <v>41.46207861308176</v>
       </c>
       <c r="I8" t="n">
-        <v>44.27823641338116</v>
+        <v>14.6925</v>
       </c>
       <c r="J8" t="n">
-        <v>41.46207861308176</v>
+        <v>30.8475</v>
       </c>
       <c r="K8" t="n">
-        <v>14.6925</v>
-      </c>
-      <c r="L8" t="n">
-        <v>30.8475</v>
-      </c>
-      <c r="M8" t="n">
         <v>1878.5425</v>
       </c>
     </row>
@@ -865,30 +813,24 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>21.2</v>
       </c>
       <c r="F9" t="n">
-        <v>21.2</v>
+        <v>107.4</v>
       </c>
       <c r="G9" t="n">
-        <v>19.2</v>
+        <v>104.9801413632098</v>
       </c>
       <c r="H9" t="n">
-        <v>107.4</v>
+        <v>90.07498004305752</v>
       </c>
       <c r="I9" t="n">
-        <v>104.9801413632098</v>
+        <v>38.514</v>
       </c>
       <c r="J9" t="n">
-        <v>90.07498004305752</v>
+        <v>42.78</v>
       </c>
       <c r="K9" t="n">
-        <v>38.514</v>
-      </c>
-      <c r="L9" t="n">
-        <v>42.78</v>
-      </c>
-      <c r="M9" t="n">
         <v>5434.648</v>
       </c>
     </row>
@@ -914,30 +856,24 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>18.4</v>
       </c>
       <c r="F10" t="n">
-        <v>18.4</v>
+        <v>57.8</v>
       </c>
       <c r="G10" t="n">
-        <v>16.4</v>
+        <v>55.14414009134642</v>
       </c>
       <c r="H10" t="n">
-        <v>57.8</v>
+        <v>54.47244840068205</v>
       </c>
       <c r="I10" t="n">
-        <v>55.14414009134642</v>
+        <v>17.858</v>
       </c>
       <c r="J10" t="n">
-        <v>54.47244840068205</v>
+        <v>33.932</v>
       </c>
       <c r="K10" t="n">
-        <v>17.858</v>
-      </c>
-      <c r="L10" t="n">
-        <v>33.932</v>
-      </c>
-      <c r="M10" t="n">
         <v>2550.434</v>
       </c>
     </row>
@@ -963,30 +899,24 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>17.6</v>
       </c>
       <c r="F11" t="n">
-        <v>17.6</v>
+        <v>58.6</v>
       </c>
       <c r="G11" t="n">
-        <v>15.6</v>
+        <v>57.86217118007698</v>
       </c>
       <c r="H11" t="n">
-        <v>58.6</v>
+        <v>54.14756710256977</v>
       </c>
       <c r="I11" t="n">
-        <v>57.86217118007698</v>
+        <v>20.334</v>
       </c>
       <c r="J11" t="n">
-        <v>54.14756710256977</v>
+        <v>44.97</v>
       </c>
       <c r="K11" t="n">
-        <v>20.334</v>
-      </c>
-      <c r="L11" t="n">
-        <v>44.97</v>
-      </c>
-      <c r="M11" t="n">
         <v>3060.35</v>
       </c>
     </row>
@@ -1012,30 +942,24 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2.5</v>
+        <v>27.5</v>
       </c>
       <c r="F12" t="n">
-        <v>27.5</v>
+        <v>43.5</v>
       </c>
       <c r="G12" t="n">
-        <v>25</v>
+        <v>42.98150586131185</v>
       </c>
       <c r="H12" t="n">
-        <v>43.5</v>
+        <v>38.94922196106675</v>
       </c>
       <c r="I12" t="n">
-        <v>42.98150586131185</v>
+        <v>14.1625</v>
       </c>
       <c r="J12" t="n">
-        <v>38.94922196106675</v>
+        <v>38.4875</v>
       </c>
       <c r="K12" t="n">
-        <v>14.1625</v>
-      </c>
-      <c r="L12" t="n">
-        <v>38.4875</v>
-      </c>
-      <c r="M12" t="n">
         <v>1914.5725</v>
       </c>
     </row>
@@ -1061,30 +985,24 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>23.6</v>
       </c>
       <c r="F13" t="n">
-        <v>23.6</v>
+        <v>138</v>
       </c>
       <c r="G13" t="n">
-        <v>21.6</v>
+        <v>130.2596040168874</v>
       </c>
       <c r="H13" t="n">
-        <v>138</v>
+        <v>114.7552084721811</v>
       </c>
       <c r="I13" t="n">
-        <v>130.2596040168874</v>
+        <v>44.336</v>
       </c>
       <c r="J13" t="n">
-        <v>114.7552084721811</v>
+        <v>32.156</v>
       </c>
       <c r="K13" t="n">
-        <v>44.336</v>
-      </c>
-      <c r="L13" t="n">
-        <v>32.156</v>
-      </c>
-      <c r="M13" t="n">
         <v>5089.902</v>
       </c>
     </row>
@@ -1110,30 +1028,24 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>3.5</v>
+        <v>34.5</v>
       </c>
       <c r="F14" t="n">
-        <v>34.5</v>
+        <v>24.5</v>
       </c>
       <c r="G14" t="n">
-        <v>31</v>
+        <v>24.32447669266905</v>
       </c>
       <c r="H14" t="n">
-        <v>24.5</v>
+        <v>22.83298711846588</v>
       </c>
       <c r="I14" t="n">
-        <v>24.32447669266905</v>
+        <v>7.515</v>
       </c>
       <c r="J14" t="n">
-        <v>22.83298711846588</v>
+        <v>20.745</v>
       </c>
       <c r="K14" t="n">
-        <v>7.515</v>
-      </c>
-      <c r="L14" t="n">
-        <v>20.745</v>
-      </c>
-      <c r="M14" t="n">
         <v>900.2049999999999</v>
       </c>
     </row>
@@ -1159,30 +1071,24 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>20.4</v>
       </c>
       <c r="F15" t="n">
-        <v>20.4</v>
+        <v>86.8</v>
       </c>
       <c r="G15" t="n">
-        <v>18.4</v>
+        <v>82.28035043401928</v>
       </c>
       <c r="H15" t="n">
-        <v>86.8</v>
+        <v>77.01873920394939</v>
       </c>
       <c r="I15" t="n">
-        <v>82.28035043401928</v>
+        <v>29.178</v>
       </c>
       <c r="J15" t="n">
-        <v>77.01873920394939</v>
+        <v>34.912</v>
       </c>
       <c r="K15" t="n">
-        <v>29.178</v>
-      </c>
-      <c r="L15" t="n">
-        <v>34.912</v>
-      </c>
-      <c r="M15" t="n">
         <v>3635.312</v>
       </c>
     </row>
@@ -1208,30 +1114,24 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2</v>
+        <v>23.33333333333333</v>
       </c>
       <c r="F16" t="n">
-        <v>23.33333333333333</v>
+        <v>90.33333333333333</v>
       </c>
       <c r="G16" t="n">
-        <v>21.33333333333333</v>
+        <v>89.00667130447671</v>
       </c>
       <c r="H16" t="n">
-        <v>90.33333333333333</v>
+        <v>80.65944687199391</v>
       </c>
       <c r="I16" t="n">
-        <v>89.00667130447671</v>
+        <v>28.15</v>
       </c>
       <c r="J16" t="n">
-        <v>80.65944687199391</v>
+        <v>30.56</v>
       </c>
       <c r="K16" t="n">
-        <v>28.15</v>
-      </c>
-      <c r="L16" t="n">
-        <v>30.56</v>
-      </c>
-      <c r="M16" t="n">
         <v>3332.326666666666</v>
       </c>
     </row>
@@ -1257,30 +1157,24 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2</v>
+        <v>28.4</v>
       </c>
       <c r="F17" t="n">
-        <v>28.4</v>
+        <v>49.6</v>
       </c>
       <c r="G17" t="n">
-        <v>26.4</v>
+        <v>49.83204173987492</v>
       </c>
       <c r="H17" t="n">
-        <v>49.6</v>
+        <v>49.60874167525618</v>
       </c>
       <c r="I17" t="n">
-        <v>49.83204173987492</v>
+        <v>16.922</v>
       </c>
       <c r="J17" t="n">
-        <v>49.60874167525618</v>
+        <v>30.388</v>
       </c>
       <c r="K17" t="n">
-        <v>16.922</v>
-      </c>
-      <c r="L17" t="n">
-        <v>30.388</v>
-      </c>
-      <c r="M17" t="n">
         <v>1779.412</v>
       </c>
     </row>
@@ -1306,30 +1200,24 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="F18" t="n">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="G18" t="n">
-        <v>24</v>
+        <v>48.1851893659697</v>
       </c>
       <c r="H18" t="n">
-        <v>49</v>
+        <v>44.85646124245318</v>
       </c>
       <c r="I18" t="n">
-        <v>48.1851893659697</v>
+        <v>16.006</v>
       </c>
       <c r="J18" t="n">
-        <v>44.85646124245318</v>
+        <v>26.666</v>
       </c>
       <c r="K18" t="n">
-        <v>16.006</v>
-      </c>
-      <c r="L18" t="n">
-        <v>26.666</v>
-      </c>
-      <c r="M18" t="n">
         <v>1740.548</v>
       </c>
     </row>
@@ -1355,30 +1243,24 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>2.4</v>
+        <v>27.6</v>
       </c>
       <c r="F19" t="n">
-        <v>27.6</v>
+        <v>74</v>
       </c>
       <c r="G19" t="n">
-        <v>25.2</v>
+        <v>72.38321943365779</v>
       </c>
       <c r="H19" t="n">
-        <v>74</v>
+        <v>67.98268048844305</v>
       </c>
       <c r="I19" t="n">
-        <v>72.38321943365779</v>
+        <v>22.724</v>
       </c>
       <c r="J19" t="n">
-        <v>67.98268048844305</v>
+        <v>26.012</v>
       </c>
       <c r="K19" t="n">
-        <v>22.724</v>
-      </c>
-      <c r="L19" t="n">
-        <v>26.012</v>
-      </c>
-      <c r="M19" t="n">
         <v>2978.108</v>
       </c>
     </row>

--- a/[3] Test Input/RESULTS_MTT_MERGED_ASR_control.xlsx
+++ b/[3] Test Input/RESULTS_MTT_MERGED_ASR_control.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,11 +481,6 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>tau</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
           <t>AUC</t>
         </is>
       </c>
@@ -527,10 +522,7 @@
         <v>8.315999999999999</v>
       </c>
       <c r="J2" t="n">
-        <v>25.904</v>
-      </c>
-      <c r="K2" t="n">
-        <v>894.338</v>
+        <v>601.044</v>
       </c>
     </row>
     <row r="3">
@@ -570,10 +562,7 @@
         <v>25.156</v>
       </c>
       <c r="J3" t="n">
-        <v>50.412</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3835.214</v>
+        <v>2467.682</v>
       </c>
     </row>
     <row r="4">
@@ -613,10 +602,7 @@
         <v>18.028</v>
       </c>
       <c r="J4" t="n">
-        <v>34.21999999999999</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2234.216</v>
+        <v>1474.252</v>
       </c>
     </row>
     <row r="5">
@@ -656,10 +642,7 @@
         <v>11.452</v>
       </c>
       <c r="J5" t="n">
-        <v>23.988</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1217.942</v>
+        <v>759.8580000000001</v>
       </c>
     </row>
     <row r="6">
@@ -699,10 +682,7 @@
         <v>10.368</v>
       </c>
       <c r="J6" t="n">
-        <v>26.156</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1100.338</v>
+        <v>700.138</v>
       </c>
     </row>
     <row r="7">
@@ -742,10 +722,7 @@
         <v>19.21666666666667</v>
       </c>
       <c r="J7" t="n">
-        <v>31.96</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2491.01</v>
+        <v>1619.476666666667</v>
       </c>
     </row>
     <row r="8">
@@ -785,10 +762,7 @@
         <v>14.6925</v>
       </c>
       <c r="J8" t="n">
-        <v>30.8475</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1878.5425</v>
+        <v>1218.0925</v>
       </c>
     </row>
     <row r="9">
@@ -828,10 +802,7 @@
         <v>38.514</v>
       </c>
       <c r="J9" t="n">
-        <v>42.78</v>
-      </c>
-      <c r="K9" t="n">
-        <v>5434.648</v>
+        <v>3580.003999999999</v>
       </c>
     </row>
     <row r="10">
@@ -871,10 +842,7 @@
         <v>17.858</v>
       </c>
       <c r="J10" t="n">
-        <v>33.932</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2550.434</v>
+        <v>1678.694</v>
       </c>
     </row>
     <row r="11">
@@ -914,10 +882,7 @@
         <v>20.334</v>
       </c>
       <c r="J11" t="n">
-        <v>44.97</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3060.35</v>
+        <v>1941.196</v>
       </c>
     </row>
     <row r="12">
@@ -957,10 +922,7 @@
         <v>14.1625</v>
       </c>
       <c r="J12" t="n">
-        <v>38.4875</v>
-      </c>
-      <c r="K12" t="n">
-        <v>1914.5725</v>
+        <v>1179.93</v>
       </c>
     </row>
     <row r="13">
@@ -1000,10 +962,7 @@
         <v>44.336</v>
       </c>
       <c r="J13" t="n">
-        <v>32.156</v>
-      </c>
-      <c r="K13" t="n">
-        <v>5089.902</v>
+        <v>3699.328</v>
       </c>
     </row>
     <row r="14">
@@ -1043,10 +1002,7 @@
         <v>7.515</v>
       </c>
       <c r="J14" t="n">
-        <v>20.745</v>
-      </c>
-      <c r="K14" t="n">
-        <v>900.2049999999999</v>
+        <v>593.0225</v>
       </c>
     </row>
     <row r="15">
@@ -1086,10 +1042,7 @@
         <v>29.178</v>
       </c>
       <c r="J15" t="n">
-        <v>34.912</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3635.312</v>
+        <v>2468.272</v>
       </c>
     </row>
     <row r="16">
@@ -1129,10 +1082,7 @@
         <v>28.15</v>
       </c>
       <c r="J16" t="n">
-        <v>30.56</v>
-      </c>
-      <c r="K16" t="n">
-        <v>3332.326666666666</v>
+        <v>2175.833333333333</v>
       </c>
     </row>
     <row r="17">
@@ -1172,10 +1122,7 @@
         <v>16.922</v>
       </c>
       <c r="J17" t="n">
-        <v>30.388</v>
-      </c>
-      <c r="K17" t="n">
-        <v>1779.412</v>
+        <v>1128.332</v>
       </c>
     </row>
     <row r="18">
@@ -1215,10 +1162,7 @@
         <v>16.006</v>
       </c>
       <c r="J18" t="n">
-        <v>26.666</v>
-      </c>
-      <c r="K18" t="n">
-        <v>1740.548</v>
+        <v>1143.252</v>
       </c>
     </row>
     <row r="19">
@@ -1258,10 +1202,7 @@
         <v>22.724</v>
       </c>
       <c r="J19" t="n">
-        <v>26.012</v>
-      </c>
-      <c r="K19" t="n">
-        <v>2978.108</v>
+        <v>1939.926</v>
       </c>
     </row>
   </sheetData>
